--- a/data/trans_orig/P21D_5_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Dificultad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>2021</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6800</v>
+        <v>5946</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.007512596319764869</v>
+        <v>0.007512596319764871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001467673164845655</v>
+        <v>0.001430432178027809</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02527204382099591</v>
+        <v>0.02209611119658101</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>2021</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6814</v>
+        <v>5233</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004332587982008989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0008289410066280082</v>
+        <v>0.0008307064109436529</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01460361535155984</v>
+        <v>0.01121653392836595</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>267056</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>262277</v>
+        <v>263131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268682</v>
+        <v>268692</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9924874036802349</v>
+        <v>0.9924874036802354</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9747279561790042</v>
+        <v>0.9779038888034186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9985323268351545</v>
+        <v>0.9985695678219723</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>563</v>
@@ -838,19 +838,19 @@
         <v>464551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>459758</v>
+        <v>461339</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>466185</v>
+        <v>466184</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9956674120179909</v>
+        <v>0.995667412017991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9853963846484399</v>
+        <v>0.9887834660716335</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9991710589933719</v>
+        <v>0.9991692935890564</v>
       </c>
     </row>
     <row r="6">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5233</v>
+        <v>4093</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002511207845861575</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01321121164908837</v>
+        <v>0.01033300836590919</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -963,19 +963,19 @@
         <v>2453</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6428</v>
+        <v>6184</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.005117659644722664</v>
+        <v>0.005117659644722663</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001282825308893198</v>
+        <v>0.001365552180931736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01340889554588714</v>
+        <v>0.01289996903544547</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -984,19 +984,19 @@
         <v>3448</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1222</v>
+        <v>1169</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8248</v>
+        <v>7800</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003938329417677776</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001395686450143719</v>
+        <v>0.001335578105365858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009421316585840259</v>
+        <v>0.008909814630839098</v>
       </c>
     </row>
     <row r="8">
@@ -1013,16 +1013,16 @@
         <v>395123</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>390885</v>
+        <v>392025</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>396118</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9974887921541383</v>
+        <v>0.9974887921541385</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9867887883509115</v>
+        <v>0.9896669916340909</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,19 +1034,19 @@
         <v>476894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472919</v>
+        <v>473163</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>478732</v>
+        <v>478692</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9948823403552773</v>
+        <v>0.9948823403552775</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9865911044541136</v>
+        <v>0.9871000309645546</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9987171746911069</v>
+        <v>0.9986344478190682</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1051</v>
@@ -1055,19 +1055,19 @@
         <v>872017</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>867217</v>
+        <v>867665</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>874243</v>
+        <v>874296</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9960616705823223</v>
+        <v>0.9960616705823221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9905786834141598</v>
+        <v>0.9910901853691609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9986043135498563</v>
+        <v>0.9986644218946341</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6237</v>
+        <v>6606</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004422225180371659</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01528579907662418</v>
+        <v>0.01619125341916244</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3646</v>
+        <v>4877</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.001864362611015745</v>
+        <v>0.001864362611015746</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.008392272868895476</v>
+        <v>0.01122758936325261</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1201,19 +1201,19 @@
         <v>2614</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7135</v>
+        <v>7676</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003103198127781872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007869210903247468</v>
+        <v>0.0007888108385374579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008470136669077189</v>
+        <v>0.009112535048292278</v>
       </c>
     </row>
     <row r="11">
@@ -1230,7 +1230,7 @@
         <v>406196</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>401763</v>
+        <v>401394</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>408000</v>
@@ -1239,7 +1239,7 @@
         <v>0.9955777748196284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9847142009233758</v>
+        <v>0.9838087465808377</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1251,16 +1251,16 @@
         <v>433600</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>430764</v>
+        <v>429533</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>434410</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9981356373889841</v>
+        <v>0.9981356373889843</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9916077271311062</v>
+        <v>0.9887724106367473</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1272,19 +1272,19 @@
         <v>839796</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>835275</v>
+        <v>834734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>841747</v>
+        <v>841745</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9968968018722182</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9915298633309234</v>
+        <v>0.990887464951708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9992130789096753</v>
+        <v>0.9992111891614626</v>
       </c>
     </row>
     <row r="12">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3751</v>
+        <v>3039</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001068622419500424</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006843263325229004</v>
+        <v>0.00554448516492818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4979</v>
+        <v>5506</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002801244849736029</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009999682939574499</v>
+        <v>0.01105820158446933</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1418,19 +1418,19 @@
         <v>1980</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5464</v>
+        <v>5847</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001893288040908651</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0005612820954560811</v>
+        <v>0.0005529226947157916</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005223076659651475</v>
+        <v>0.005589991309701437</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         <v>547584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>544419</v>
+        <v>545131</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>548170</v>
@@ -1456,7 +1456,7 @@
         <v>0.9989313775804995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9931567366747718</v>
+        <v>0.9944555148350719</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1468,16 +1468,16 @@
         <v>496488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>492904</v>
+        <v>492377</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>497883</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.997198755150264</v>
+        <v>0.9971987551502639</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9900003170604255</v>
+        <v>0.9889417984155309</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1489,19 +1489,19 @@
         <v>1044073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1040589</v>
+        <v>1040206</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1045466</v>
+        <v>1045475</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9981067119590914</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9947769233403473</v>
+        <v>0.9944100086902982</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.999438717904544</v>
+        <v>0.9994470773052843</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>3385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>985</v>
+        <v>1024</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8998</v>
+        <v>8655</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002184040217870914</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0006354192123802474</v>
+        <v>0.0006606422601730066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.005806013623566291</v>
+        <v>0.005584733424960757</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1614,19 +1614,19 @@
         <v>6679</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3604</v>
+        <v>3599</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12070</v>
+        <v>12273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003974012057299988</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002144558762913542</v>
+        <v>0.002141505755773511</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007181407613395985</v>
+        <v>0.007302421371737056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1635,19 +1635,19 @@
         <v>10064</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5356</v>
+        <v>5747</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16627</v>
+        <v>16769</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003115300590030135</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001657900425566305</v>
+        <v>0.001779135299291871</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005146878504905944</v>
+        <v>0.005190900613042951</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>1546398</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1540785</v>
+        <v>1541128</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1548798</v>
+        <v>1548759</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9978159597821291</v>
+        <v>0.997815959782129</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9941939863764337</v>
+        <v>0.9944152665750392</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9993645807876197</v>
+        <v>0.999339357739827</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2340</v>
@@ -1685,19 +1685,19 @@
         <v>1674038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1668647</v>
+        <v>1668444</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1677113</v>
+        <v>1677118</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9960259879427001</v>
+        <v>0.9960259879426999</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9928185923866042</v>
+        <v>0.992697578628263</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9978554412370865</v>
+        <v>0.9978584942442265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3782</v>
@@ -1706,19 +1706,19 @@
         <v>3220436</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3213873</v>
+        <v>3213731</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3225144</v>
+        <v>3224753</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9968846994099698</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9948531214950942</v>
+        <v>0.9948090993869568</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9983420995744337</v>
+        <v>0.998220864700708</v>
       </c>
     </row>
     <row r="18">
